--- a/natmiOut/OldD0/LR-pairs_lrc2p/Hbegf-Erbb2.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Hbegf-Erbb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.5820229055457</v>
+        <v>13.739149</v>
       </c>
       <c r="H2">
-        <v>10.5820229055457</v>
+        <v>41.217447</v>
       </c>
       <c r="I2">
-        <v>0.5545903607024369</v>
+        <v>0.6130043224686931</v>
       </c>
       <c r="J2">
-        <v>0.5545903607024369</v>
+        <v>0.6130043224686931</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>4.85845247947144</v>
+        <v>1.534538333333333</v>
       </c>
       <c r="N2">
-        <v>4.85845247947144</v>
+        <v>4.603615</v>
       </c>
       <c r="O2">
-        <v>0.5645793606391022</v>
+        <v>0.1494637976135089</v>
       </c>
       <c r="P2">
-        <v>0.5645793606391022</v>
+        <v>0.1494637976135089</v>
       </c>
       <c r="Q2">
-        <v>51.41225542327207</v>
+        <v>21.08325080787833</v>
       </c>
       <c r="R2">
-        <v>51.41225542327207</v>
+        <v>189.749257270905</v>
       </c>
       <c r="S2">
-        <v>0.3131102712619909</v>
+        <v>0.09162195398966692</v>
       </c>
       <c r="T2">
-        <v>0.3131102712619909</v>
+        <v>0.09162195398966692</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.5820229055457</v>
+        <v>13.739149</v>
       </c>
       <c r="H3">
-        <v>10.5820229055457</v>
+        <v>41.217447</v>
       </c>
       <c r="I3">
-        <v>0.5545903607024369</v>
+        <v>0.6130043224686931</v>
       </c>
       <c r="J3">
-        <v>0.5545903607024369</v>
+        <v>0.6130043224686931</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.74698515815613</v>
+        <v>4.973328333333334</v>
       </c>
       <c r="N3">
-        <v>3.74698515815613</v>
+        <v>14.919985</v>
       </c>
       <c r="O3">
-        <v>0.4354206393608977</v>
+        <v>0.4844014146353658</v>
       </c>
       <c r="P3">
-        <v>0.4354206393608977</v>
+        <v>0.4844014146353658</v>
       </c>
       <c r="Q3">
-        <v>39.65068277034794</v>
+        <v>68.32929899758834</v>
       </c>
       <c r="R3">
-        <v>39.65068277034794</v>
+        <v>614.9636909782951</v>
       </c>
       <c r="S3">
-        <v>0.241480089440446</v>
+        <v>0.2969401609814289</v>
       </c>
       <c r="T3">
-        <v>0.241480089440446</v>
+        <v>0.2969401609814289</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.88122474529224</v>
+        <v>13.739149</v>
       </c>
       <c r="H4">
-        <v>3.88122474529224</v>
+        <v>41.217447</v>
       </c>
       <c r="I4">
-        <v>0.203410052186789</v>
+        <v>0.6130043224686931</v>
       </c>
       <c r="J4">
-        <v>0.203410052186789</v>
+        <v>0.6130043224686931</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.85845247947144</v>
+        <v>3.75909</v>
       </c>
       <c r="N4">
-        <v>4.85845247947144</v>
+        <v>11.27727</v>
       </c>
       <c r="O4">
-        <v>0.5645793606391022</v>
+        <v>0.3661347877511252</v>
       </c>
       <c r="P4">
-        <v>0.5645793606391022</v>
+        <v>0.3661347877511252</v>
       </c>
       <c r="Q4">
-        <v>18.85674598715099</v>
+        <v>51.64669761441</v>
       </c>
       <c r="R4">
-        <v>18.85674598715099</v>
+        <v>464.82027852969</v>
       </c>
       <c r="S4">
-        <v>0.1148411172111837</v>
+        <v>0.2244422074975972</v>
       </c>
       <c r="T4">
-        <v>0.1148411172111837</v>
+        <v>0.2244422074975972</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.88122474529224</v>
+        <v>4.034036666666666</v>
       </c>
       <c r="H5">
-        <v>3.88122474529224</v>
+        <v>12.10211</v>
       </c>
       <c r="I5">
-        <v>0.203410052186789</v>
+        <v>0.1799879973398545</v>
       </c>
       <c r="J5">
-        <v>0.203410052186789</v>
+        <v>0.1799879973398545</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>3.74698515815613</v>
+        <v>1.534538333333333</v>
       </c>
       <c r="N5">
-        <v>3.74698515815613</v>
+        <v>4.603615</v>
       </c>
       <c r="O5">
-        <v>0.4354206393608977</v>
+        <v>0.1494637976135089</v>
       </c>
       <c r="P5">
-        <v>0.4354206393608977</v>
+        <v>0.1494637976135089</v>
       </c>
       <c r="Q5">
-        <v>14.54289151607833</v>
+        <v>6.19038390307222</v>
       </c>
       <c r="R5">
-        <v>14.54289151607833</v>
+        <v>55.71345512764999</v>
       </c>
       <c r="S5">
-        <v>0.08856893497560524</v>
+        <v>0.0269016896072648</v>
       </c>
       <c r="T5">
-        <v>0.08856893497560524</v>
+        <v>0.0269016896072648</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,57 +776,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.61754360587025</v>
+        <v>4.034036666666666</v>
       </c>
       <c r="H6">
-        <v>4.61754360587025</v>
+        <v>12.10211</v>
       </c>
       <c r="I6">
-        <v>0.2419995871107741</v>
+        <v>0.1799879973398545</v>
       </c>
       <c r="J6">
-        <v>0.2419995871107741</v>
+        <v>0.1799879973398545</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.85845247947144</v>
+        <v>4.973328333333334</v>
       </c>
       <c r="N6">
-        <v>4.85845247947144</v>
+        <v>14.919985</v>
       </c>
       <c r="O6">
-        <v>0.5645793606391022</v>
+        <v>0.4844014146353658</v>
       </c>
       <c r="P6">
-        <v>0.5645793606391022</v>
+        <v>0.4844014146353658</v>
       </c>
       <c r="Q6">
-        <v>22.43411618100781</v>
+        <v>20.06258885203889</v>
       </c>
       <c r="R6">
-        <v>22.43411618100781</v>
+        <v>180.56329966835</v>
       </c>
       <c r="S6">
-        <v>0.1366279721659276</v>
+        <v>0.087186440528812</v>
       </c>
       <c r="T6">
-        <v>0.1366279721659276</v>
+        <v>0.08718644052881198</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.61754360587025</v>
+        <v>4.034036666666666</v>
       </c>
       <c r="H7">
-        <v>4.61754360587025</v>
+        <v>12.10211</v>
       </c>
       <c r="I7">
-        <v>0.2419995871107741</v>
+        <v>0.1799879973398545</v>
       </c>
       <c r="J7">
-        <v>0.2419995871107741</v>
+        <v>0.1799879973398545</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.74698515815613</v>
+        <v>3.75909</v>
       </c>
       <c r="N7">
-        <v>3.74698515815613</v>
+        <v>11.27727</v>
       </c>
       <c r="O7">
-        <v>0.4354206393608977</v>
+        <v>0.3661347877511252</v>
       </c>
       <c r="P7">
-        <v>0.4354206393608977</v>
+        <v>0.3661347877511252</v>
       </c>
       <c r="Q7">
-        <v>17.30186735833457</v>
+        <v>15.1643068933</v>
       </c>
       <c r="R7">
-        <v>17.30186735833457</v>
+        <v>136.4787620397</v>
       </c>
       <c r="S7">
-        <v>0.1053716149448465</v>
+        <v>0.06589986720377772</v>
       </c>
       <c r="T7">
-        <v>0.1053716149448465</v>
+        <v>0.06589986720377772</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>4.639623666666666</v>
+      </c>
+      <c r="H8">
+        <v>13.918871</v>
+      </c>
+      <c r="I8">
+        <v>0.2070076801914524</v>
+      </c>
+      <c r="J8">
+        <v>0.2070076801914524</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>1.534538333333333</v>
+      </c>
+      <c r="N8">
+        <v>4.603615</v>
+      </c>
+      <c r="O8">
+        <v>0.1494637976135089</v>
+      </c>
+      <c r="P8">
+        <v>0.1494637976135089</v>
+      </c>
+      <c r="Q8">
+        <v>7.119680368740553</v>
+      </c>
+      <c r="R8">
+        <v>64.07712331866499</v>
+      </c>
+      <c r="S8">
+        <v>0.03094015401657723</v>
+      </c>
+      <c r="T8">
+        <v>0.03094015401657723</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>4.639623666666666</v>
+      </c>
+      <c r="H9">
+        <v>13.918871</v>
+      </c>
+      <c r="I9">
+        <v>0.2070076801914524</v>
+      </c>
+      <c r="J9">
+        <v>0.2070076801914524</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>4.973328333333334</v>
+      </c>
+      <c r="N9">
+        <v>14.919985</v>
+      </c>
+      <c r="O9">
+        <v>0.4844014146353658</v>
+      </c>
+      <c r="P9">
+        <v>0.4844014146353658</v>
+      </c>
+      <c r="Q9">
+        <v>23.07437183743722</v>
+      </c>
+      <c r="R9">
+        <v>207.669346536935</v>
+      </c>
+      <c r="S9">
+        <v>0.1002748131251249</v>
+      </c>
+      <c r="T9">
+        <v>0.1002748131251249</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>4.639623666666666</v>
+      </c>
+      <c r="H10">
+        <v>13.918871</v>
+      </c>
+      <c r="I10">
+        <v>0.2070076801914524</v>
+      </c>
+      <c r="J10">
+        <v>0.2070076801914524</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>3.75909</v>
+      </c>
+      <c r="N10">
+        <v>11.27727</v>
+      </c>
+      <c r="O10">
+        <v>0.3661347877511252</v>
+      </c>
+      <c r="P10">
+        <v>0.3661347877511252</v>
+      </c>
+      <c r="Q10">
+        <v>17.44076292913</v>
+      </c>
+      <c r="R10">
+        <v>156.96686636217</v>
+      </c>
+      <c r="S10">
+        <v>0.07579271304975023</v>
+      </c>
+      <c r="T10">
+        <v>0.07579271304975023</v>
       </c>
     </row>
   </sheetData>
